--- a/paper_word/毕设+表格.xlsx
+++ b/paper_word/毕设+表格.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BBB3CD-FFDB-4891-AC85-5758231B7247}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07A6A5A-160F-4A60-9F08-860875016CB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="300" windowWidth="15525" windowHeight="14730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分布选择" sheetId="2" r:id="rId1"/>
     <sheet name="日历效应检验结果记录" sheetId="1" r:id="rId2"/>
+    <sheet name="日历效应影响因素" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -570,15 +571,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,6 +582,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98D0475-3DF0-433A-A228-617B0113A5FC}">
   <dimension ref="B2:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -924,19 +925,19 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -948,19 +949,19 @@
       <c r="I3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
@@ -970,15 +971,15 @@
       <c r="I4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="11"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="5" t="s">
         <v>21</v>
       </c>
@@ -988,23 +989,23 @@
       <c r="I5" s="5">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="11"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -1016,19 +1017,19 @@
       <c r="I6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1038,15 +1039,15 @@
       <c r="I7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="11"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1056,23 +1057,23 @@
       <c r="I8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="11"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="17" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1084,19 +1085,19 @@
       <c r="I9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="J9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1106,15 +1107,15 @@
       <c r="I10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="11"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1124,8 +1125,8 @@
       <c r="I11" s="5">
         <v>2.0619999999999999E-2</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="11"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -1134,15 +1135,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="K9:K11"/>
@@ -1155,6 +1147,15 @@
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="J6:J8"/>
     <mergeCell ref="J9:J11"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1163,11 +1164,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1186,7 +1185,10 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1223,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1231,7 +1233,7 @@
       <c r="D3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1256,7 +1258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1284,14 +1286,14 @@
       <c r="J4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="13" t="s">
         <v>66</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1310,7 +1312,7 @@
       <c r="G5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>71</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -1326,7 +1328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1336,7 +1338,7 @@
       <c r="D6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -1361,7 +1363,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1380,7 +1382,7 @@
       <c r="G7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>76</v>
       </c>
       <c r="I7" s="10" t="s">
@@ -1396,7 +1398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1415,7 +1417,7 @@
       <c r="G8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="14" t="s">
         <v>78</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -1431,7 +1433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1441,7 +1443,7 @@
       <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>81</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -1450,7 +1452,7 @@
       <c r="G9" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -1466,7 +1468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1494,14 +1496,14 @@
       <c r="J10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="13" t="s">
         <v>87</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1520,7 +1522,7 @@
       <c r="G11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="14" t="s">
         <v>78</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1541,4 +1543,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC828F1-9456-4541-BAA9-E0A1BCFA771D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/paper_word/毕设+表格.xlsx
+++ b/paper_word/毕设+表格.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07A6A5A-160F-4A60-9F08-860875016CB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C56A30-83CC-4AED-8A1C-D389A7B20A8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分布选择" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="165">
   <si>
     <t>股指名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,11 +108,6 @@
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准化收益率扰动
-分布假设</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,23 +252,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>具体模型2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>具体模型3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -448,6 +431,340 @@
   <si>
     <t>0.003395
 ***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.192952
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.007383
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000360
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000819
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000097
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.005791
+**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.008195
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000427
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.004435
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000364
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.008549
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.004818
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000254
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.002194
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000306
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.002217
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.001241
+**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.177756
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.001274
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.003956
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.002024
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001400
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.008932
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.011892
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.012306
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.007371
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000157
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.000362
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.002835
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001844
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000297
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.003601
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.011223
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000033
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.005015
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000802
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001662
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.005075
+**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.000161
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000254
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.003282
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001381
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.009825
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.023819
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.004773
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.001619
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.002100
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.000180
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.000368
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.004418
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.001261
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.002489
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.009968
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.002591
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证综指1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证综指2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证综指3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业板指1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业板指2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业板指3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深证成指1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深证成指2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深证成指3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布假设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情绪因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策因素</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +772,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,13 +795,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -498,37 +808,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -543,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -552,44 +851,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -872,284 +1170,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98D0475-3DF0-433A-A228-617B0113A5FC}">
-  <dimension ref="B2:K13"/>
+  <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2.0619999999999999E-2</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="13" spans="2:12" ht="36" x14ac:dyDescent="0.2">
+      <c r="K13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="L14" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="9" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="16"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="5">
-        <v>2.0619999999999999E-2</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L20:L22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D9:D11"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="K20:K22"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
@@ -1164,378 +1480,397 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="10.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="19" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="20" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="22" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N22" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1547,14 +1882,624 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC828F1-9456-4541-BAA9-E0A1BCFA771D}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:V11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" hidden="1" customWidth="1"/>
+    <col min="20" max="22" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+    </row>
+    <row r="4" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+    </row>
+    <row r="6" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+    </row>
+    <row r="7" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+    </row>
+    <row r="8" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+    </row>
+    <row r="9" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/paper_word/毕设+表格.xlsx
+++ b/paper_word/毕设+表格.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C56A30-83CC-4AED-8A1C-D389A7B20A8F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E198B5-7254-42BD-AE9E-EB69ADA7E0AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="182">
   <si>
     <t>股指名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,28 +438,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-1.192952
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.007383
 ***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000360
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000819
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000097
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,52 +448,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.008195
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000427
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.004435
 ***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.000364
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.008549
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.004818
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000254
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.002194
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000306
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.002217
 ***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,103 +463,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-0.177756
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.001274
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.003956
 ***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">-0.002024
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.001400
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.008932
 ***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.011892
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.012306
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.007371
 ***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">-0.000157
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.000362
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.002835
 ***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.001844
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000297
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.003601
 ***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-0.011223
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000033
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.005015
 ***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000802
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001662
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,86 +498,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-0.000161
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000254
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.003282
 ***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.001381
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.009825
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.023819
 ***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.004773
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.001619
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.002100
 ***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-0.000180
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.000368
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.004418
 ***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-0.001261
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.002489
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.009968
 ***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-0.002591
-***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -765,6 +580,259 @@
   </si>
   <si>
     <t>政策因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情绪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.003027
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.009536
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000959
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.002465
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.002612
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.002687
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.005050
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.005757
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.003307
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.003183
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.002674
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.004206
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.011343
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.011616
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.002567
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.004137
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.007713
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.000984
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.001602
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.002389
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001515
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.004195
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001586
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000050
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.001651
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.002562
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.015665
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000235
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.006718
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.105563
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002261
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.072164
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.060204
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000139
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.001129
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.001184
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.015438
+***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周历效应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月历效应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假日效应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与假设相反的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总检验数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正日历效应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负日历效应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,7 +898,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -838,16 +906,189 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,10 +1101,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -872,24 +1160,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1173,7 +1461,7 @@
   <dimension ref="B2:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1189,260 +1477,260 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="24" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="9" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="9" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="9" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="14" t="s">
+      <c r="H9" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="27" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="9" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="9" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>2.0619999999999999E-2</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="13" spans="2:12" ht="36" x14ac:dyDescent="0.2">
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" spans="11:13" x14ac:dyDescent="0.2">
       <c r="M23" s="1" t="s">
@@ -1451,11 +1739,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="L17:L19"/>
     <mergeCell ref="L20:L22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D8"/>
@@ -1466,6 +1749,11 @@
     <mergeCell ref="K14:K16"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="K20:K22"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="L17:L19"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
@@ -1483,7 +1771,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1492,11 +1780,10 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1504,372 +1791,372 @@
       <c r="A1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="H2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>150</v>
+      <c r="K2" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="11" t="s">
+      <c r="I8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="I10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="14:14" x14ac:dyDescent="0.15">
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1882,624 +2169,995 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC828F1-9456-4541-BAA9-E0A1BCFA771D}">
-  <dimension ref="B2:V11"/>
+  <dimension ref="B1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21:Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="10" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.25" customWidth="1"/>
     <col min="14" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="3" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.5" customWidth="1"/>
     <col min="20" max="22" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="19"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="19"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="Q6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="19"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="8"/>
+    </row>
+    <row r="7" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="Q7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="19"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="19"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="Q9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="19"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="S11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" s="26"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="P12">
         <v>3</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="7" t="s">
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <f>SUM(U12,P12,I12)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <f>SUM(U13,P13,I13)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f>I12/I13</f>
+        <v>1</v>
+      </c>
+      <c r="K14"/>
+      <c r="P14">
+        <f t="shared" ref="P14:V14" si="0">P12/P13</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q14"/>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16">
         <v>4</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+      <c r="L16">
+        <f>SUM(K16,I16)</f>
+        <v>9</v>
+      </c>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="K17">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="L17">
+        <f>SUM(K17,I17)</f>
+        <v>12</v>
+      </c>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f>I16/I17</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K18">
+        <f>K16/K17</f>
+        <v>0.8</v>
+      </c>
+      <c r="L18">
+        <f>L16/L17</f>
+        <v>0.75</v>
+      </c>
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="K19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="K20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="F21" s="1"/>
+      <c r="G21" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="1"/>
+      <c r="T21" t="s">
+        <v>173</v>
+      </c>
+      <c r="U21" t="s">
+        <v>174</v>
+      </c>
+      <c r="V21" t="s">
+        <v>175</v>
+      </c>
+      <c r="W21" t="s">
+        <v>179</v>
+      </c>
+      <c r="X21" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="F22" s="1"/>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>4</v>
+      </c>
+      <c r="J22" s="12">
         <v>5</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-    </row>
-    <row r="4" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
+      <c r="K22" s="13">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10">
+        <v>2</v>
+      </c>
+      <c r="M22" s="10">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="N22" s="12">
+        <v>12</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="S22" t="s">
+        <v>176</v>
+      </c>
+      <c r="T22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <f>T22+U22+V22</f>
         <v>9</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="X22">
+        <v>5</v>
+      </c>
+      <c r="Y22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="F23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" ref="G23:N25" si="1">H23-1</f>
+        <v>24</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="O23" s="1">
+        <v>32</v>
+      </c>
+      <c r="S23" t="s">
+        <v>177</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+      <c r="V23">
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <f>T23+U23+V23</f>
+        <v>12</v>
+      </c>
+      <c r="X23">
+        <v>7</v>
+      </c>
+      <c r="Y23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="N24" s="11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="O24" s="1">
+        <v>41</v>
+      </c>
+      <c r="S24" t="s">
+        <v>178</v>
+      </c>
+      <c r="T24" s="38">
+        <f>T22/T23</f>
+        <v>1</v>
+      </c>
+      <c r="U24" s="38">
+        <f t="shared" ref="U24:W24" si="2">U22/U23</f>
+        <v>0.6</v>
+      </c>
+      <c r="V24" s="38">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="W24" s="38">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="X24" s="38">
+        <f t="shared" ref="X24" si="3">X22/X23</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="Y24" s="38">
+        <f t="shared" ref="Y24" si="4">Y22/Y23</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="34">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-    </row>
-    <row r="6" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-    </row>
-    <row r="7" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-    </row>
-    <row r="8" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-    </row>
-    <row r="9" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-    </row>
-    <row r="10" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
+      <c r="H25" s="34">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I25" s="34">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J25" s="35">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="K25" s="36">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="L25" s="34">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="M25" s="34">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="N25" s="35">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="O25" s="37">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:N21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/paper_word/毕设+表格.xlsx
+++ b/paper_word/毕设+表格.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E198B5-7254-42BD-AE9E-EB69ADA7E0AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2F69B7-B975-408D-8E6A-0243F80E8D56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="186">
   <si>
     <t>股指名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,10 +812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与假设相反的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总检验数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -828,11 +824,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正日历效应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负日历效应</t>
+    <t>政策因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情绪因素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与假设相同结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与假设相反结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正效应</t>
+  </si>
+  <si>
+    <t>负效应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,13 +1169,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1172,12 +1193,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1503,13 +1518,13 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="34" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1521,17 +1536,17 @@
       <c r="G3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="27" t="s">
+      <c r="H3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1541,13 +1556,13 @@
       <c r="G4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="27"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
@@ -1557,17 +1572,17 @@
       <c r="G5" s="6">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="34" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1579,17 +1594,17 @@
       <c r="G6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
@@ -1599,13 +1614,13 @@
       <c r="G7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1615,17 +1630,17 @@
       <c r="G8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="34" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1637,17 +1652,17 @@
       <c r="G9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="27" t="s">
+      <c r="H9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1657,13 +1672,13 @@
       <c r="G10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1673,8 +1688,8 @@
       <c r="G11" s="6">
         <v>2.0619999999999999E-2</v>
       </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="13" spans="2:12" ht="36" x14ac:dyDescent="0.2">
       <c r="K13" s="4" t="s">
@@ -1685,52 +1700,52 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
     </row>
     <row r="19" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
     </row>
     <row r="20" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
     </row>
     <row r="22" spans="11:13" x14ac:dyDescent="0.2">
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
     </row>
     <row r="23" spans="11:13" x14ac:dyDescent="0.2">
       <c r="M23" s="1" t="s">
@@ -1739,6 +1754,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="L20:L22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D8"/>
@@ -1754,12 +1775,6 @@
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="L14:L16"/>
     <mergeCell ref="L17:L19"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2169,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC828F1-9456-4541-BAA9-E0A1BCFA771D}">
-  <dimension ref="B1:Y25"/>
+  <dimension ref="B1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21:Y24"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2874,6 +2889,27 @@
         <v>12</v>
       </c>
       <c r="Q17"/>
+      <c r="S17" t="s">
+        <v>180</v>
+      </c>
+      <c r="T17" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="18" spans="6:25" x14ac:dyDescent="0.2">
       <c r="I18">
@@ -2889,48 +2925,99 @@
         <v>0.75</v>
       </c>
       <c r="Q18"/>
+      <c r="S18" t="s">
+        <v>182</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <v>8</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>16</v>
+      </c>
+      <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="6:25" x14ac:dyDescent="0.2">
       <c r="K19"/>
       <c r="Q19"/>
+      <c r="S19" t="s">
+        <v>176</v>
+      </c>
+      <c r="T19">
+        <v>7</v>
+      </c>
+      <c r="U19">
+        <v>9</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>18</v>
+      </c>
+      <c r="X19">
+        <v>10</v>
+      </c>
+      <c r="Y19">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="6:25" x14ac:dyDescent="0.2">
       <c r="K20"/>
       <c r="Q20"/>
+      <c r="S20" t="s">
+        <v>177</v>
+      </c>
+      <c r="T20" s="32">
+        <f>T18/T19</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="U20" s="32">
+        <f t="shared" ref="U20:Y20" si="1">U18/U19</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="V20" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W20" s="32">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="X20" s="32">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y20" s="32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="6:25" x14ac:dyDescent="0.2">
       <c r="F21" s="1"/>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32" t="s">
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="31"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="37"/>
       <c r="O21" s="1"/>
-      <c r="T21" t="s">
-        <v>173</v>
-      </c>
-      <c r="U21" t="s">
-        <v>174</v>
-      </c>
-      <c r="V21" t="s">
-        <v>175</v>
-      </c>
-      <c r="W21" t="s">
-        <v>179</v>
-      </c>
-      <c r="X21" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="22" spans="6:25" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
@@ -2962,26 +3049,25 @@
         <v>128</v>
       </c>
       <c r="S22" t="s">
-        <v>176</v>
-      </c>
-      <c r="T22">
-        <v>5</v>
-      </c>
-      <c r="U22">
+        <v>181</v>
+      </c>
+      <c r="T22" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" t="s">
         <v>3</v>
       </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <f>T22+U22+V22</f>
-        <v>9</v>
-      </c>
-      <c r="X22">
-        <v>5</v>
-      </c>
-      <c r="Y22">
+      <c r="V22" t="s">
         <v>4</v>
+      </c>
+      <c r="W22" t="s">
+        <v>178</v>
+      </c>
+      <c r="X22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="6:25" x14ac:dyDescent="0.2">
@@ -2989,61 +3075,61 @@
         <v>131</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:N25" si="1">H23-1</f>
+        <f t="shared" ref="G23:N25" si="2">H23-1</f>
         <v>24</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="J23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="K23" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="O23" s="1">
         <v>32</v>
       </c>
       <c r="S23" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="T23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V23">
         <v>2</v>
       </c>
       <c r="W23">
         <f>T23+U23+V23</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y23">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3051,106 +3137,228 @@
         <v>132</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="J24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="K24" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="N24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="O24" s="1">
         <v>41</v>
       </c>
       <c r="S24" t="s">
+        <v>176</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>9</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <f>T24+U24+V24</f>
+        <v>18</v>
+      </c>
+      <c r="X24">
+        <v>10</v>
+      </c>
+      <c r="Y24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="28">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H25" s="28">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="I25" s="28">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="J25" s="29">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K25" s="30">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="L25" s="28">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="M25" s="28">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N25" s="29">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="O25" s="31">
+        <v>50</v>
+      </c>
+      <c r="S25" t="s">
+        <v>177</v>
+      </c>
+      <c r="T25" s="32">
+        <f>T23/T24</f>
+        <v>1</v>
+      </c>
+      <c r="U25" s="32">
+        <f t="shared" ref="U25:Y25" si="3">U23/U24</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="V25" s="32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="W25" s="32">
+        <f t="shared" si="3"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="X25" s="32">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="Y25" s="32">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="S27" t="s">
+        <v>179</v>
+      </c>
+      <c r="T27" t="s">
+        <v>173</v>
+      </c>
+      <c r="U27" t="s">
+        <v>174</v>
+      </c>
+      <c r="V27" t="s">
+        <v>175</v>
+      </c>
+      <c r="W27" t="s">
         <v>178</v>
       </c>
-      <c r="T24" s="38">
-        <f>T22/T23</f>
+      <c r="X27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="S28" t="s">
+        <v>183</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>3</v>
+      </c>
+      <c r="V28">
         <v>1</v>
       </c>
-      <c r="U24" s="38">
-        <f t="shared" ref="U24:W24" si="2">U22/U23</f>
+      <c r="W28">
+        <f>T28+U28+V28</f>
+        <v>9</v>
+      </c>
+      <c r="X28">
+        <v>5</v>
+      </c>
+      <c r="Y28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="S29" t="s">
+        <v>176</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <f>T29+U29+V29</f>
+        <v>12</v>
+      </c>
+      <c r="X29">
+        <v>7</v>
+      </c>
+      <c r="Y29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="S30" t="s">
+        <v>177</v>
+      </c>
+      <c r="T30" s="32">
+        <f>T28/T29</f>
+        <v>1</v>
+      </c>
+      <c r="U30" s="32">
+        <f t="shared" ref="U30:W30" si="4">U28/U29</f>
         <v>0.6</v>
       </c>
-      <c r="V24" s="38">
-        <f t="shared" si="2"/>
+      <c r="V30" s="32">
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="W24" s="38">
-        <f t="shared" si="2"/>
+      <c r="W30" s="32">
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
-      <c r="X24" s="38">
-        <f t="shared" ref="X24" si="3">X22/X23</f>
+      <c r="X30" s="32">
+        <f t="shared" ref="X30" si="5">X28/X29</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="Y24" s="38">
-        <f t="shared" ref="Y24" si="4">Y22/Y23</f>
+      <c r="Y30" s="32">
+        <f t="shared" ref="Y30" si="6">Y28/Y29</f>
         <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="34">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="H25" s="34">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="I25" s="34">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="J25" s="35">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="K25" s="36">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="L25" s="34">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="M25" s="34">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="N25" s="35">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="O25" s="37">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/paper_word/毕设+表格.xlsx
+++ b/paper_word/毕设+表格.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2F69B7-B975-408D-8E6A-0243F80E8D56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176CD22F-F6ED-4B48-8826-A8DFA3A508AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2187,7 +2187,7 @@
   <dimension ref="B1:Y30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
